--- a/Semestre 1/2.- Probabilidad Y Estadística/Ejercicio 35.xlsx
+++ b/Semestre 1/2.- Probabilidad Y Estadística/Ejercicio 35.xlsx
@@ -1,19 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Villaseñor\Documents\TecTepic\Semestre 1\2.- Probabilidad Y Estadística\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71786A5A-6C2E-4D68-B7F3-1D3049892A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
   <si>
     <t>a)</t>
   </si>
@@ -39,19 +59,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -73,15 +93,14 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -92,12 +111,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -108,13 +130,19 @@
     <xdr:ext cx="4772025" cy="4257675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1602512459" name="" hidden="0"/>
+        <xdr:cNvPr id="1602512459" name="Picture 1602512458">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B66845F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -132,291 +160,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -619,22 +364,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
     </row>
-    <row r="4" ht="14.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I4" s="2" t="s">
         <v>0</v>
       </c>
@@ -642,7 +389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="14.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K5" t="s">
         <v>2</v>
       </c>
@@ -653,7 +400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="14.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I6" t="s">
         <v>5</v>
       </c>
@@ -671,7 +418,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" ht="14.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
         <v>3</v>
       </c>
@@ -686,12 +433,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" ht="14.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
         <v>4</v>
       </c>
       <c r="K8">
-        <f>SUM(K7:K6)</f>
+        <f>SUM(K6:K7)</f>
         <v>70</v>
       </c>
       <c r="L8">
@@ -703,12 +450,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" ht="14.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="14.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K12" t="s">
         <v>2</v>
       </c>
@@ -719,8 +466,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" ht="14.25">
-      <c r="I13" s="3" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
         <v>5</v>
       </c>
       <c r="J13" t="s">
@@ -736,16 +483,16 @@
       </c>
       <c r="M13">
         <f>SUM(K13:L13)</f>
-        <v>0.27000000000000002</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J14" t="s">
         <v>3</v>
       </c>
       <c r="K14">
         <f>K7/M8</f>
-        <v>0.035000000000000003</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="L14">
         <f>L7/M8</f>
@@ -753,10 +500,10 @@
       </c>
       <c r="M14">
         <f>SUM(K14:L14)</f>
-        <v>0.23000000000000001</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
         <v>4</v>
       </c>
@@ -773,16 +520,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="14.25">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>